--- a/training/output/Resnet34_ViT/P/P2_P0.xlsx
+++ b/training/output/Resnet34_ViT/P/P2_P0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9067982456140351</v>
+        <v>0.6779411764705883</v>
       </c>
       <c r="B2" t="n">
-        <v>1.705329547848618</v>
+        <v>1.540202014586505</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.873529411764706</v>
       </c>
       <c r="B3" t="n">
-        <v>1.510087793333489</v>
+        <v>1.241719273959889</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9364705882352941</v>
       </c>
       <c r="B4" t="n">
-        <v>1.456709554320887</v>
+        <v>1.077095887240242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9555882352941177</v>
       </c>
       <c r="B5" t="n">
-        <v>1.423448704836661</v>
+        <v>0.9839971661567688</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9714705882352942</v>
       </c>
       <c r="B6" t="n">
-        <v>1.429594500023022</v>
+        <v>0.9035179825390086</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9832352941176471</v>
       </c>
       <c r="B7" t="n">
-        <v>1.427893496396249</v>
+        <v>0.8453652543180129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9847058823529411</v>
       </c>
       <c r="B8" t="n">
-        <v>1.435618329466435</v>
+        <v>0.8326635676271775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9826470588235293</v>
       </c>
       <c r="B9" t="n">
-        <v>1.421863555908203</v>
+        <v>0.7964895788361045</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9826470588235295</v>
       </c>
       <c r="B10" t="n">
-        <v>1.404796589884842</v>
+        <v>0.790071988807005</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9885294117647059</v>
       </c>
       <c r="B11" t="n">
-        <v>1.441404169065911</v>
+        <v>0.7686702538939083</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9861764705882353</v>
       </c>
       <c r="B12" t="n">
-        <v>1.423924881115294</v>
+        <v>0.7617800691548515</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9897058823529411</v>
       </c>
       <c r="B13" t="n">
-        <v>1.426666966655798</v>
+        <v>0.747698236914242</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9885294117647059</v>
       </c>
       <c r="B14" t="n">
-        <v>1.416204389772917</v>
+        <v>0.7458225313354941</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9894117647058823</v>
       </c>
       <c r="B15" t="n">
-        <v>1.40494714285198</v>
+        <v>0.7395692713120404</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9873529411764705</v>
       </c>
       <c r="B16" t="n">
-        <v>1.410511799025954</v>
+        <v>0.7310021344353171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9891176470588237</v>
       </c>
       <c r="B17" t="n">
-        <v>1.397662884310672</v>
+        <v>0.7303603396696203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9879411764705883</v>
       </c>
       <c r="B18" t="n">
-        <v>1.397081416949891</v>
+        <v>0.7330253264483284</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9908823529411764</v>
       </c>
       <c r="B19" t="n">
-        <v>1.408106366793315</v>
+        <v>0.7255652091082405</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9897058823529411</v>
       </c>
       <c r="B20" t="n">
-        <v>1.475516317183511</v>
+        <v>0.7308727011961096</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9885294117647059</v>
       </c>
       <c r="B21" t="n">
-        <v>1.418237667334707</v>
+        <v>0.7241874547565684</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9891176470588237</v>
       </c>
       <c r="B22" t="n">
-        <v>1.417703892055311</v>
+        <v>0.721348804586074</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9902941176470589</v>
       </c>
       <c r="B23" t="n">
-        <v>1.400268588149757</v>
+        <v>0.7252579226213343</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>0.9908823529411764</v>
       </c>
       <c r="B24" t="n">
-        <v>1.39995963531628</v>
+        <v>0.7242770861176884</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0.9885294117647059</v>
       </c>
       <c r="B25" t="n">
-        <v>1.413141196234184</v>
+        <v>0.7237745137775645</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9897058823529411</v>
       </c>
       <c r="B26" t="n">
-        <v>1.395404880506951</v>
+        <v>0.7221015726818758</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9908823529411764</v>
       </c>
       <c r="B27" t="n">
-        <v>1.395712639156141</v>
+        <v>0.7185470321599174</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9902941176470589</v>
       </c>
       <c r="B28" t="n">
-        <v>1.396998882293701</v>
+        <v>0.7201575601802153</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9891176470588237</v>
       </c>
       <c r="B29" t="n">
-        <v>1.398303293345267</v>
+        <v>0.7201818613445058</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B30" t="n">
-        <v>1.399641053718433</v>
+        <v>0.7165405294474434</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9908823529411764</v>
       </c>
       <c r="B31" t="n">
-        <v>1.403888593640244</v>
+        <v>0.7149326766238493</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9917647058823529</v>
       </c>
       <c r="B32" t="n">
-        <v>1.397369604361685</v>
+        <v>0.7189594647463631</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9902941176470589</v>
       </c>
       <c r="B33" t="n">
-        <v>1.402320418441505</v>
+        <v>0.7139577514985028</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>0.9923529411764704</v>
       </c>
       <c r="B34" t="n">
-        <v>1.41225598778641</v>
+        <v>0.7167208685594446</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B35" t="n">
-        <v>1.432830948578684</v>
+        <v>0.7123223157490001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>0.9923529411764704</v>
       </c>
       <c r="B36" t="n">
-        <v>1.397898757666872</v>
+        <v>0.7163006312706891</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0.9902941176470589</v>
       </c>
       <c r="B37" t="n">
-        <v>1.399792934718885</v>
+        <v>0.7151346662465263</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>0.9902941176470589</v>
       </c>
       <c r="B38" t="n">
-        <v>1.393787049410636</v>
+        <v>0.7122945960830239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>0.9911764705882353</v>
       </c>
       <c r="B39" t="n">
-        <v>1.391366488055179</v>
+        <v>0.7119700768414665</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>0.9923529411764707</v>
       </c>
       <c r="B40" t="n">
-        <v>1.397953740337439</v>
+        <v>0.7122189087026259</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9908823529411764</v>
       </c>
       <c r="B41" t="n">
-        <v>1.39020415983702</v>
+        <v>0.711000424974105</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9929411764705882</v>
       </c>
       <c r="B42" t="n">
-        <v>1.390888609384236</v>
+        <v>0.7134017698905047</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>0.9897058823529411</v>
       </c>
       <c r="B43" t="n">
-        <v>1.392604305033098</v>
+        <v>0.7141049048479866</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>0.9897058823529411</v>
       </c>
       <c r="B44" t="n">
-        <v>1.394337731495238</v>
+        <v>0.7114589635063621</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9917647058823529</v>
       </c>
       <c r="B45" t="n">
-        <v>1.390968232824091</v>
+        <v>0.7123716683948741</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>0.9908823529411767</v>
       </c>
       <c r="B46" t="n">
-        <v>1.390070256433989</v>
+        <v>0.7116831015138065</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0.9908823529411764</v>
       </c>
       <c r="B47" t="n">
-        <v>1.391919207154659</v>
+        <v>0.7077946873272166</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B48" t="n">
-        <v>1.400068810111598</v>
+        <v>0.7090146751964793</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B49" t="n">
-        <v>1.401473062080249</v>
+        <v>0.7094756820622612</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B50" t="n">
-        <v>1.39399114198852</v>
+        <v>0.709730796954211</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B51" t="n">
-        <v>1.393227382710106</v>
+        <v>0.7102379448273602</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B52" t="n">
-        <v>1.413543274528102</v>
+        <v>0.7118865847587585</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B53" t="n">
-        <v>1.396334275864718</v>
+        <v>0.7076768910183626</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>0.9920588235294119</v>
       </c>
       <c r="B54" t="n">
-        <v>1.402742592911971</v>
+        <v>0.7082594212363748</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B55" t="n">
-        <v>1.397264453402737</v>
+        <v>0.7075657844543457</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9908823529411764</v>
       </c>
       <c r="B56" t="n">
-        <v>1.404983363653484</v>
+        <v>0.7078264811459709</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9920588235294119</v>
       </c>
       <c r="B57" t="n">
-        <v>1.396864987256234</v>
+        <v>0.7104633555692785</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9908823529411764</v>
       </c>
       <c r="B58" t="n">
-        <v>1.391012978135494</v>
+        <v>0.713398162056418</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>0.9899999999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>1.390105057180973</v>
+        <v>0.7152734854642082</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9917647058823529</v>
       </c>
       <c r="B60" t="n">
-        <v>1.449202527079666</v>
+        <v>0.711561076781329</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B61" t="n">
-        <v>1.393632669197886</v>
+        <v>0.7117286008947036</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B62" t="n">
-        <v>1.393410389883476</v>
+        <v>0.7098232542767244</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B63" t="n">
-        <v>1.401009040966368</v>
+        <v>0.7091199089499081</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>0.9908823529411767</v>
       </c>
       <c r="B64" t="n">
-        <v>1.3906034210272</v>
+        <v>0.7090598870726192</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>0.9908823529411767</v>
       </c>
       <c r="B65" t="n">
-        <v>1.393450858300192</v>
+        <v>0.7088047371191137</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9902941176470589</v>
       </c>
       <c r="B66" t="n">
-        <v>1.435842946956032</v>
+        <v>0.7059792700935813</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>0.9902941176470589</v>
       </c>
       <c r="B67" t="n">
-        <v>1.394047588632818</v>
+        <v>0.705507804365719</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>0.9902941176470589</v>
       </c>
       <c r="B68" t="n">
-        <v>1.390016415662933</v>
+        <v>0.7074268600519966</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>0.9897058823529411</v>
       </c>
       <c r="B69" t="n">
-        <v>1.38952716819027</v>
+        <v>0.7097797498983496</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B70" t="n">
-        <v>1.389524675252145</v>
+        <v>0.7083387585247264</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>0.9908823529411767</v>
       </c>
       <c r="B71" t="n">
-        <v>1.405101604628981</v>
+        <v>0.7088294414912953</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B72" t="n">
-        <v>1.395220233683001</v>
+        <v>0.7084202135310453</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>0.9923529411764704</v>
       </c>
       <c r="B73" t="n">
-        <v>1.43406217349203</v>
+        <v>0.7054627327358022</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9908823529411767</v>
       </c>
       <c r="B74" t="n">
-        <v>1.395571855076572</v>
+        <v>0.7054087975445915</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>0.9929411764705882</v>
       </c>
       <c r="B75" t="n">
-        <v>1.403925257816649</v>
+        <v>0.7057664148947772</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B76" t="n">
-        <v>1.396567516159593</v>
+        <v>0.7072824274792391</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B77" t="n">
-        <v>1.391825289057012</v>
+        <v>0.7053808394600364</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9923529411764707</v>
       </c>
       <c r="B78" t="n">
-        <v>1.39765213037792</v>
+        <v>0.7058852560379926</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9929411764705882</v>
       </c>
       <c r="B79" t="n">
-        <v>1.405571479546396</v>
+        <v>0.7079391339245964</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9902941176470589</v>
       </c>
       <c r="B80" t="n">
-        <v>1.401217307960778</v>
+        <v>0.7056534746113945</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>0.9935294117647059</v>
       </c>
       <c r="B81" t="n">
-        <v>1.421244334756282</v>
+        <v>0.7062508604105782</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>0.9908823529411767</v>
       </c>
       <c r="B82" t="n">
-        <v>1.396197726852015</v>
+        <v>0.7049549467423383</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>0.9929411764705882</v>
       </c>
       <c r="B83" t="n">
-        <v>1.390685740270113</v>
+        <v>0.7044258783845341</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B84" t="n">
-        <v>1.401759919367338</v>
+        <v>0.7082760404138004</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>0.9917647058823529</v>
       </c>
       <c r="B85" t="n">
-        <v>1.393299985350224</v>
+        <v>0.7074263762025272</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>0.9935294117647059</v>
       </c>
       <c r="B86" t="n">
-        <v>1.392402916623835</v>
+        <v>0.7045632705968969</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>0.9897058823529413</v>
       </c>
       <c r="B87" t="n">
-        <v>1.390377473412899</v>
+        <v>0.7035436034202576</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B88" t="n">
-        <v>1.44047700940517</v>
+        <v>0.7053494313183952</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1</v>
+        <v>0.9908823529411767</v>
       </c>
       <c r="B89" t="n">
-        <v>1.39725993599808</v>
+        <v>0.7077824999304378</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B90" t="n">
-        <v>1.402953953073736</v>
+        <v>0.7068039284032934</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B91" t="n">
-        <v>1.391974265115303</v>
+        <v>0.7039315700531006</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B92" t="n">
-        <v>1.389250895433259</v>
+        <v>0.7038636558196124</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>0.9920588235294119</v>
       </c>
       <c r="B93" t="n">
-        <v>1.392107662401701</v>
+        <v>0.7055432831539827</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0.9908823529411767</v>
       </c>
       <c r="B94" t="n">
-        <v>1.390360991160075</v>
+        <v>0.7055002240573659</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0.9935294117647059</v>
       </c>
       <c r="B95" t="n">
-        <v>1.393926009797213</v>
+        <v>0.7066156794043148</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9902941176470589</v>
       </c>
       <c r="B96" t="n">
-        <v>1.388837969093992</v>
+        <v>0.7061860070509069</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>0.9908823529411767</v>
       </c>
       <c r="B97" t="n">
-        <v>1.390287183878715</v>
+        <v>0.7036962894832387</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>0.9908823529411767</v>
       </c>
       <c r="B98" t="n">
-        <v>1.410967958600898</v>
+        <v>0.7057924971860998</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9908823529411767</v>
       </c>
       <c r="B99" t="n">
-        <v>1.396132862358763</v>
+        <v>0.7033638533423928</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B100" t="n">
-        <v>1.394962231318156</v>
+        <v>0.7039729146396413</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>0.9914705882352941</v>
       </c>
       <c r="B101" t="n">
-        <v>1.390916493901035</v>
+        <v>0.7059172497076147</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9908823529411767</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7029348226154551</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7038180652786704</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7038345301852507</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9908823529411767</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7044008549521951</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7062832888434915</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9908823529411767</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7042452377431533</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.703737686662113</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7034486532211304</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7038858252413133</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7044958472251892</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7052684566553902</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9926470588235294</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7033389350947212</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7039085381171283</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7032970400417552</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7048409511061275</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.703061605201048</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9908823529411767</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7023455220110276</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7054241404813879</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7037083261153277</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9926470588235294</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7025073871893042</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9926470588235294</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7030694660018472</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9902941176470589</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7061362827525419</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9908823529411767</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.704185896060046</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7020211324972265</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7049899942734662</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7030115828794592</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7034894613658681</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9932352941176471</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7038072032086989</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9932352941176471</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7026342118487638</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9926470588235294</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7024325518047109</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9926470588235294</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7042243270313039</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9932352941176471</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7049428645302268</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9926470588235294</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7038227319717407</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9932352941176471</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7039065957069397</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7035307533600751</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7025408043580896</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7034522470305947</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7048192550154293</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7016026973724365</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7022786701426786</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7045755456475651</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7101992508944344</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9908823529411764</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7039239827324363</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9902941176470589</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7046738407191109</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9926470588235294</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7042613520341761</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9926470588235294</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7035160660743713</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7048543831881355</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7034062778248507</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9932352941176471</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7051541700082666</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7046771926038405</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7027524183778202</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9902941176470589</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7053101062774658</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9902941176470589</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7047979586264667</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7042856637169334</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7046366859884823</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9902941176470589</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7030218383845162</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9917647058823529</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7021045404322007</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7033742631182951</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9929411764705882</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7036609053611755</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9923529411764704</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7034033466787899</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9908823529411764</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7030474087771248</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9908823529411764</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7016261430347667</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9902941176470589</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7016453111872953</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9908823529411767</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7010656980907216</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9908823529411764</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7032643766964183</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7028623012935414</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9908823529411767</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7068780204829048</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9908823529411767</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7035436805556802</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9908823529411767</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7019098401069641</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7018097954637864</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7028882117832408</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9908823529411767</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7041299167801353</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9908823529411767</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7016763652072233</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9908823529411767</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.702674175010008</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7021056378588957</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7016537855653202</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7009115394423989</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7048827549990486</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7056717907681185</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7028310509289012</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9926470588235294</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.70291186430875</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7034309085677651</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9926470588235294</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7026993386885699</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9926470588235294</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7027017649482278</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9902941176470589</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7019534426576951</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7024524176821989</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9908823529411767</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7033304992844077</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7018888627781588</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7035029670771431</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7036743689985836</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9902941176470589</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7021279475268196</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7022271156311035</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7025920994141522</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.70208599988152</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9932352941176471</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7021274321219501</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7014676928520203</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9920588235294119</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7025017983773175</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9908823529411767</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7021973588887382</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9908823529411767</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7012708292287939</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9914705882352941</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7015962074784672</v>
       </c>
     </row>
   </sheetData>
